--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ccl4</t>
+  </si>
+  <si>
+    <t>Ccr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Ccl4</t>
-  </si>
-  <si>
-    <t>Ccr1</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -528,10 +531,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>330.777059</v>
+        <v>0.2195956666666667</v>
       </c>
       <c r="H2">
-        <v>992.3311769999999</v>
+        <v>0.658787</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>151.722402</v>
+        <v>0.009232000000000001</v>
       </c>
       <c r="N2">
-        <v>455.167206</v>
+        <v>0.027696</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>50186.28991797571</v>
+        <v>0.002027307194666667</v>
       </c>
       <c r="R2">
-        <v>451676.6092617814</v>
+        <v>0.018245764752</v>
       </c>
       <c r="S2">
         <v>1</v>
